--- a/data/trans_dic/P19-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P19-Habitat-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.2854175553872992</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.2217947807596812</v>
+        <v>0.2217947807596811</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.3107170631925775</v>
@@ -685,7 +685,7 @@
         <v>0.3451991565672349</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.2876947816667814</v>
+        <v>0.2876947816667813</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.2687418712540779</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1980268836187306</v>
+        <v>0.195576139976799</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1926528982746673</v>
+        <v>0.1908332151576458</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2466928204463537</v>
+        <v>0.2517870961118122</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.187549648450175</v>
+        <v>0.1853394093388381</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.2814784147730756</v>
+        <v>0.2753978598348977</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2623452618177053</v>
+        <v>0.265035921581198</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.3102316095170582</v>
+        <v>0.3107920319629059</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.2598694469240196</v>
+        <v>0.260572112207998</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.2442569027743642</v>
+        <v>0.2480782072528118</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.2357976364892926</v>
+        <v>0.2331214053359236</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.2889589892794249</v>
+        <v>0.2902810036153642</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.2330311458562329</v>
+        <v>0.2324208856259074</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2582915480123629</v>
+        <v>0.2611838400813066</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2584005319862355</v>
+        <v>0.2561922099997947</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3177925735859472</v>
+        <v>0.3205332188953007</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2602167839806038</v>
+        <v>0.2571318959033783</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.3449609676400389</v>
+        <v>0.3435750938261291</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3322115661207402</v>
+        <v>0.3338758697862386</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.3807127119601634</v>
+        <v>0.3863621289534093</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.3200958870658665</v>
+        <v>0.3193959596267349</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2922913295687435</v>
+        <v>0.292766949342709</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.2833033654054961</v>
+        <v>0.2829121279894332</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.3403496297017914</v>
+        <v>0.3432757176016698</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2791003725454013</v>
+        <v>0.2785152799459372</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.3572194378393734</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.2715428704595576</v>
+        <v>0.2715428704595575</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.2815157810238435</v>
@@ -833,7 +833,7 @@
         <v>0.3202752812666035</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.255306619163683</v>
+        <v>0.2553066191636831</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2227860279468811</v>
+        <v>0.2159978725849112</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2099972054770935</v>
+        <v>0.2102692431712906</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2539066652952433</v>
+        <v>0.2554270776896909</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2022310759935102</v>
+        <v>0.2094507559737632</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2850604648185294</v>
+        <v>0.2843665794017109</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2709430045318532</v>
+        <v>0.2721944588073487</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.3262538942719329</v>
+        <v>0.3263322647223491</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.248773962699581</v>
+        <v>0.2484556566825165</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.2622742198295026</v>
+        <v>0.2587820400220289</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.2490219160016035</v>
+        <v>0.250276045315073</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.2992986990017142</v>
+        <v>0.3009021259083271</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.2367394877594151</v>
+        <v>0.2375813696586637</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2767850188742639</v>
+        <v>0.2761774136472017</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2650287718551856</v>
+        <v>0.2659496326415244</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3106717655504275</v>
+        <v>0.3124395507579817</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2665985688229887</v>
+        <v>0.2692887167726599</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3460910851550015</v>
+        <v>0.3460979589499994</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3315061102313734</v>
+        <v>0.3330823276192897</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.3891524927999182</v>
+        <v>0.3861940259116631</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2976440773769014</v>
+        <v>0.3013218387423982</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.3033496477293238</v>
+        <v>0.3017426303995858</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.2898897595321243</v>
+        <v>0.2893336616468802</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.3417634540547952</v>
+        <v>0.3398916766564208</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.275506983625955</v>
+        <v>0.2773348180082161</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.3494836111949993</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.3364079213358619</v>
+        <v>0.336407921335862</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.2998407752717902</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2414290480548551</v>
+        <v>0.2408686324191171</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2314732862605478</v>
+        <v>0.233330777876833</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2789096091154178</v>
+        <v>0.2770542314677724</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2680058183040789</v>
+        <v>0.2634040351614412</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.29118611434542</v>
+        <v>0.2919291775065078</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2578976612207862</v>
+        <v>0.2606310764623891</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.3151527435208655</v>
+        <v>0.3136971665315278</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.3073933098030134</v>
+        <v>0.3083726217657813</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.2761805517942156</v>
+        <v>0.274512981544335</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.2553499722674013</v>
+        <v>0.2565770369004475</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.3086027674118112</v>
+        <v>0.3071814670776649</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.2936480061298551</v>
+        <v>0.2937657585450236</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3136289122459754</v>
+        <v>0.3147140724697487</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2983065603019939</v>
+        <v>0.3059095933669287</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3448617042341332</v>
+        <v>0.3476823545049122</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.3427016034742176</v>
+        <v>0.3387125834886157</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.364407905092937</v>
+        <v>0.3647581880315399</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3277190844845118</v>
+        <v>0.3303521885052876</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.3852899810061641</v>
+        <v>0.3861970385857391</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3664189492341152</v>
+        <v>0.3673094913807964</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.3247959877963545</v>
+        <v>0.3239179026677282</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.3028681652984629</v>
+        <v>0.3044890605998057</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.3575213253399025</v>
+        <v>0.3542832547382821</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.3413005491072968</v>
+        <v>0.3438653518948857</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2201062142498497</v>
+        <v>0.2196332886701837</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.233369230211423</v>
+        <v>0.2308723209809547</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2583710322124156</v>
+        <v>0.2581986669061165</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2572731061430488</v>
+        <v>0.2604172901388709</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2803636698599689</v>
+        <v>0.2800138966022677</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2886742976089429</v>
+        <v>0.2888399078211145</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.3031918806533709</v>
+        <v>0.3013879440046794</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.322306136156764</v>
+        <v>0.3234962232425347</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.2583186296090954</v>
+        <v>0.2602215760747844</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.2719042018953446</v>
+        <v>0.2691810947941632</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.287137123131589</v>
+        <v>0.2876120969252913</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.3015304038850583</v>
+        <v>0.3011279926096054</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2773027683454496</v>
+        <v>0.2754832274088832</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2940455177730227</v>
+        <v>0.2886531663237788</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3158300446883546</v>
+        <v>0.3171186096856303</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3198249902572353</v>
+        <v>0.3229084043376098</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3373732960131799</v>
+        <v>0.3344921042717475</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3487823352711274</v>
+        <v>0.3476189791589329</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.3641075576500971</v>
+        <v>0.3614611501961124</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.3723676044592279</v>
+        <v>0.3748070317145593</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2982174502812859</v>
+        <v>0.2997064564789793</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.3123931749110298</v>
+        <v>0.311010305715873</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.3315803306233142</v>
+        <v>0.331526138613939</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.3387849961472024</v>
+        <v>0.3397448456753971</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2340211353326815</v>
+        <v>0.2333457006454011</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.231837521124972</v>
+        <v>0.2308013152687392</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2731954458661593</v>
+        <v>0.273504566048816</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.2472975019960179</v>
+        <v>0.2456303766533904</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.298061843231977</v>
+        <v>0.2963046138050197</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2868571853908241</v>
+        <v>0.2869717096285596</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.3277673772082697</v>
+        <v>0.3286494590928967</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.297629236745919</v>
+        <v>0.298430897341013</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.2705609463719796</v>
+        <v>0.2712439490313696</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.2656045505033621</v>
+        <v>0.2643578956759631</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.3088520135854333</v>
+        <v>0.3077066819442409</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.2776181553250661</v>
+        <v>0.2778499746953452</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2647311914305926</v>
+        <v>0.2641544528363499</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2618486494557353</v>
+        <v>0.2616827032574002</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.3052331684306099</v>
+        <v>0.3069882479398203</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2812477382837679</v>
+        <v>0.2811743732713519</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.3294422041531345</v>
+        <v>0.3283002863059188</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3182121181710253</v>
+        <v>0.3174122099047941</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.3612048436963857</v>
+        <v>0.3610344806913924</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.3261460301444419</v>
+        <v>0.3253839335468214</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.2921993106507784</v>
+        <v>0.2929291613244036</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.2883878306476649</v>
+        <v>0.2868853344656943</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.3302777088968096</v>
+        <v>0.3301913615362504</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.2995594604931634</v>
+        <v>0.2998505155802768</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>137433</v>
+        <v>135732</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>135041</v>
+        <v>133766</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>166468</v>
+        <v>169906</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>128946</v>
+        <v>127426</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>193496</v>
+        <v>189316</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>182868</v>
+        <v>184743</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>208736</v>
+        <v>209113</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>189422</v>
+        <v>189934</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>337426</v>
+        <v>342705</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>329647</v>
+        <v>325905</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>389412</v>
+        <v>391194</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>330075</v>
+        <v>329210</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>179257</v>
+        <v>181265</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>181127</v>
+        <v>179579</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>214446</v>
+        <v>216296</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>178907</v>
+        <v>176786</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>237135</v>
+        <v>236182</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>231568</v>
+        <v>232728</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>256158</v>
+        <v>259960</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>233321</v>
+        <v>232811</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>403782</v>
+        <v>404439</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>396060</v>
+        <v>395513</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>458668</v>
+        <v>462612</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>395329</v>
+        <v>394500</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>214276</v>
+        <v>207747</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>213766</v>
+        <v>214043</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>259602</v>
+        <v>261157</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>210593</v>
+        <v>218111</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>276051</v>
+        <v>275379</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>279663</v>
+        <v>280955</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>340254</v>
+        <v>340336</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>265396</v>
+        <v>265056</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>506240</v>
+        <v>499499</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>510528</v>
+        <v>513099</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>618155</v>
+        <v>621466</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>499085</v>
+        <v>500860</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>266212</v>
+        <v>265627</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>269785</v>
+        <v>270723</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>317640</v>
+        <v>319448</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>277622</v>
+        <v>280423</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>335152</v>
+        <v>335159</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>342175</v>
+        <v>343802</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>405852</v>
+        <v>402767</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>317531</v>
+        <v>321454</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>585523</v>
+        <v>582422</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>594312</v>
+        <v>593172</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>705859</v>
+        <v>701993</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>580813</v>
+        <v>584666</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>163812</v>
+        <v>163432</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>175369</v>
+        <v>176777</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>211846</v>
+        <v>210437</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>214980</v>
+        <v>211289</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>199125</v>
+        <v>199633</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>200431</v>
+        <v>202556</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>247398</v>
+        <v>246256</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>247080</v>
+        <v>247867</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>376255</v>
+        <v>373983</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>391910</v>
+        <v>393794</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>476656</v>
+        <v>474461</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>471581</v>
+        <v>471770</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>212800</v>
+        <v>213536</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>226004</v>
+        <v>231764</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>261940</v>
+        <v>264083</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>274897</v>
+        <v>271697</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>249197</v>
+        <v>249437</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>254695</v>
+        <v>256741</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>302457</v>
+        <v>303169</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>294524</v>
+        <v>295240</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>442486</v>
+        <v>441290</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>464841</v>
+        <v>467329</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>552214</v>
+        <v>547213</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>548108</v>
+        <v>552227</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>207188</v>
+        <v>206743</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>221173</v>
+        <v>218807</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>242240</v>
+        <v>242079</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>251055</v>
+        <v>254123</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>291189</v>
+        <v>290826</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>303379</v>
+        <v>303553</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>316465</v>
+        <v>314582</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>354392</v>
+        <v>355701</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>511451</v>
+        <v>515218</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>543448</v>
+        <v>538006</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>568918</v>
+        <v>569859</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>625791</v>
+        <v>624956</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>261028</v>
+        <v>259315</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>278678</v>
+        <v>273568</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>296112</v>
+        <v>297320</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>312095</v>
+        <v>315104</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>350400</v>
+        <v>347408</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>366548</v>
+        <v>365326</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>380048</v>
+        <v>377286</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>409438</v>
+        <v>412120</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>590447</v>
+        <v>593395</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>624373</v>
+        <v>621609</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>656975</v>
+        <v>656868</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>703109</v>
+        <v>705101</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>766567</v>
+        <v>764354</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>793873</v>
+        <v>790325</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>927321</v>
+        <v>928370</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>867236</v>
+        <v>861390</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>1006934</v>
+        <v>1000998</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>1020450</v>
+        <v>1020857</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>1161785</v>
+        <v>1164912</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>1100951</v>
+        <v>1103916</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>1800287</v>
+        <v>1804831</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>1854347</v>
+        <v>1845644</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>2143091</v>
+        <v>2135143</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>2000495</v>
+        <v>2002166</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>867162</v>
+        <v>865273</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>896639</v>
+        <v>896071</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>1036068</v>
+        <v>1042026</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>986295</v>
+        <v>986038</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>1112945</v>
+        <v>1109088</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>1131990</v>
+        <v>1129145</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>1280306</v>
+        <v>1279702</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>1206436</v>
+        <v>1203617</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>1944266</v>
+        <v>1949123</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>2013411</v>
+        <v>2002922</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>2291761</v>
+        <v>2291162</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>2158602</v>
+        <v>2160700</v>
       </c>
     </row>
     <row r="24">
